--- a/files/conduittests/settings/ChangePasswordTest.xlsx
+++ b/files/conduittests/settings/ChangePasswordTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesamM\Desktop\automation-project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesamM\Desktop\automation-project\files\conduittests\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A30948-FF13-4BB8-A548-B8398DF2B273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308383D6-40FC-448A-8C6D-34C407FE3C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9742F19E-60F3-4DA9-BF28-5CD88D968A98}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Run</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>new password</t>
+  </si>
+  <si>
+    <t>112233445555555000222222</t>
+  </si>
+  <si>
+    <t>112233445555555231321321231</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -153,6 +159,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,14 +481,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="43.85546875" customWidth="1"/>
   </cols>
@@ -653,7 +663,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,8 +671,8 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,10 +688,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -698,10 +708,10 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>123456789</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>11223344</v>
       </c>
     </row>
@@ -718,10 +728,10 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>11223344</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>1122334455</v>
       </c>
     </row>
@@ -738,11 +748,11 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1122334455</v>
       </c>
-      <c r="F4" s="1">
-        <v>11223344</v>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,14 +768,15 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>11223344</v>
       </c>
-      <c r="F5" s="1">
-        <v>1122334455</v>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/conduittests/settings/ChangePasswordTest.xlsx
+++ b/files/conduittests/settings/ChangePasswordTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesamM\Desktop\automation-project\files\conduittests\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308383D6-40FC-448A-8C6D-34C407FE3C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67980DCC-5E2E-4F8D-9C40-7B13C1141814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9742F19E-60F3-4DA9-BF28-5CD88D968A98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9742F19E-60F3-4DA9-BF28-5CD88D968A98}"/>
   </bookViews>
   <sheets>
     <sheet name="ch_OldPassToInvalidPasswordTest" sheetId="1" r:id="rId1"/>
@@ -97,16 +97,16 @@
     <t>Check response on entering 7 characters</t>
   </si>
   <si>
-    <t>old password</t>
-  </si>
-  <si>
     <t>new password</t>
   </si>
   <si>
-    <t>112233445555555000222222</t>
-  </si>
-  <si>
     <t>112233445555555231321321231</t>
+  </si>
+  <si>
+    <t>112233445566</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85C2F47-BC36-4679-BC45-4E4A183D24D0}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>12</v>
+        <v>123456789</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954A88CB-78A3-4DD6-858D-A3E349B6C0B4}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,11 +671,10 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +690,8 @@
       <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,13 +705,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="F2" s="3">
         <v>11223344</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -728,14 +721,11 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <v>11223344</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1122334455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -748,14 +738,11 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
-        <v>1122334455</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,11 +755,8 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
-        <v>11223344</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
